--- a/medicine/Mort/Panthéon_national_(Venezuela)/Panthéon_national_(Venezuela).xlsx
+++ b/medicine/Mort/Panthéon_national_(Venezuela)/Panthéon_national_(Venezuela).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_national_(Venezuela)</t>
+          <t>Panthéon_national_(Venezuela)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Panthéon national (en espagnol : Panteón Nacional) est un bâtiment public situé dans la vieille ville de Caracas, au Venezuela. Il s'agit à l'origine d'une église (église Santísima Trinidad), devenue ensuite un sanctuaire pour les « héros nationaux ». La nef centrale est dédiée à Simón Bolívar ; les peintures sur les voutes, réalisées dans les années 1930, lui rendent également hommage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_national_(Venezuela)</t>
+          <t>Panthéon_national_(Venezuela)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des personnes enterrées au Panthéon national</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Entre parenthèses, date de l'inhumation au Panthéon
 Cecilio Acosta, écrivain et journaliste (5 juillet 1937)
@@ -675,7 +689,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_national_(Venezuela)</t>
+          <t>Panthéon_national_(Venezuela)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -695,8 +709,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monuments
-Nef centrale
+          <t>Monuments</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nef centrale
 Monument à Simón Bolívar, par Pietro Tenerani.
 Nef droite
 Monument à la Première République, Hugo Daini.
@@ -706,13 +725,81 @@
 Monument à José Antonio Páez, par José Pizzo.
 Monument à Rafael Urdaneta, par Pietro Ceccarelli.
 Monument à José María Vargas, par Franco Bianchinni.
-Monument à Santiago Mariño, par Manuel de la Fuente.
-Cénotaphes
-Cénotaphes en honneur à Francisco de Miranda, par Julio Roversi.
+Monument à Santiago Mariño, par Manuel de la Fuente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Panthéon_national_(Venezuela)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_national_(Venezuela)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments architecturaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cénotaphes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cénotaphes en honneur à Francisco de Miranda, par Julio Roversi.
 Cénotaphes en honneur à Antonio José de Sucre, par Juan Bautista Sales Ferré.
-Cénotaphes en honneur à Andrés Bello, par Manuel de la Fuente.
-Œuvres de Tito Salas
-Alegoría de la libertad de los esclavos
+Cénotaphes en honneur à Andrés Bello, par Manuel de la Fuente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Panthéon_national_(Venezuela)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_national_(Venezuela)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments architecturaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres de Tito Salas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alegoría de la libertad de los esclavos
 Apoteosis del Libertador (1942)
 Bolívar en el Chimborazo
 Bolívar y Humboldt en París
@@ -732,31 +819,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Panth%C3%A9on_national_(Venezuela)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Panthéon_national_(Venezuela)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_national_(Venezuela)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « National Pantheon of Venezuela » (voir la liste des auteurs).</t>
         </is>
